--- a/Apps/OddsScreen/head_to_head.xlsx
+++ b/Apps/OddsScreen/head_to_head.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">start_time</t>
   </si>
@@ -47,133 +47,160 @@
     <t xml:space="preserve">2023 Toyota AFL Premiership</t>
   </si>
   <si>
-    <t xml:space="preserve">Round 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Kilda v North Melbourne</t>
+    <t xml:space="preserve">Round 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collingwood v Carlton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collingwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betfair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlueBet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midasbet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palmerbet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Playup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pointsbet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sportsbet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TopSport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geelong v Fremantle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geelong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fremantle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Bulldogs v Greater Western Sydney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Bulldogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greater Western Sydney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wst Bulldogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Coast v Brisbane Lions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brisbane Lions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brisbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essendon v Sydney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essendon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sydney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adelaide v Port Adelaide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adelaide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port Adelaide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawthorn v St Kilda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawthorn</t>
   </si>
   <si>
     <t xml:space="preserve">St Kilda</t>
   </si>
   <si>
+    <t xml:space="preserve">Richmond v Melbourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richmond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melbourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Coast v North Melbourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Coast</t>
+  </si>
+  <si>
     <t xml:space="preserve">North Melbourne</t>
   </si>
   <si>
-    <t xml:space="preserve">Betr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Midasbet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palmerbet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Playup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pointsbet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TopSport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collingwood v Carlton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collingwood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betfair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlueBet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sportsbet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geelong v Fremantle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geelong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fremantle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Bulldogs v Greater Western Sydney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Bulldogs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greater Western Sydney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Coast v Brisbane Lions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Coast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brisbane Lions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brisbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essendon v Sydney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essendon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sydney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adelaide v Port Adelaide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adelaide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Port Adelaide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hawthorn v St Kilda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hawthorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richmond v Melbourne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richmond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melbourne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Coast v North Melbourne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Coast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betright</t>
+    <t xml:space="preserve">Round 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Bulldogs v Richmond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essendon v West Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adelaide v Gold Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawthorn v Collingwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geelong v Port Adelaide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greater Western Sydney v Sydney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Melbourne v Melbourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Kilda v Carlton</t>
   </si>
 </sst>
 </file>
@@ -547,7 +574,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45130.2777777778</v>
+        <v>45135.4097222222</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -562,16 +589,16 @@
         <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>1.77</v>
+        <v>1.456</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>2.02</v>
+        <v>2.9</v>
       </c>
       <c r="I2" t="n">
-        <v>6.002</v>
+        <v>3.164</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -579,7 +606,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45130.2777777778</v>
+        <v>45135.4097222222</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -594,24 +621,24 @@
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>1.09</v>
+        <v>1.4465</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="n">
-        <v>5.8</v>
+        <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>8.984</v>
+        <v>3.615</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45130.2777777778</v>
+        <v>45135.4097222222</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -626,24 +653,24 @@
         <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>1.1</v>
+        <v>1.38</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="n">
-        <v>5.4</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>9.428</v>
+        <v>6.947</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45130.2777777778</v>
+        <v>45135.4097222222</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -658,24 +685,24 @@
         <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>1.2</v>
+        <v>1.43</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>6.589</v>
+        <v>5.644</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45130.2777777778</v>
+        <v>45135.4097222222</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -690,24 +717,24 @@
         <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>1.2</v>
+        <v>1.43</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="n">
-        <v>4.6</v>
+        <v>2.85</v>
       </c>
       <c r="I6" t="n">
-        <v>5.072</v>
+        <v>5.018</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45130.2777777778</v>
+        <v>45135.4097222222</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -722,24 +749,24 @@
         <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" t="n">
-        <v>2.05</v>
+        <v>2.95</v>
       </c>
       <c r="I7" t="n">
-        <v>7.604</v>
+        <v>5.327</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45130.2777777778</v>
+        <v>45135.4097222222</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -754,19 +781,19 @@
         <v>13</v>
       </c>
       <c r="F8" t="n">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
       </c>
       <c r="H8" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="I8" t="n">
-        <v>6.061</v>
+        <v>6.947</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -777,28 +804,28 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F9" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>2.786</v>
+        <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>8.358</v>
+        <v>4.905</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -809,28 +836,28 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>2.71</v>
+        <v>3.02</v>
       </c>
       <c r="I10" t="n">
-        <v>9.364</v>
+        <v>5.055</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
@@ -841,28 +868,28 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.762</v>
+      </c>
+      <c r="J11" t="s">
         <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.3705</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.786</v>
-      </c>
-      <c r="I11" t="n">
-        <v>8.86</v>
-      </c>
-      <c r="J11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12">
@@ -873,28 +900,28 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.018</v>
+      </c>
+      <c r="J12" t="s">
         <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.3705</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9.866</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -905,28 +932,28 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5.055</v>
+      </c>
+      <c r="J13" t="s">
         <v>24</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5.329</v>
-      </c>
-      <c r="J13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -937,28 +964,28 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.905</v>
+      </c>
+      <c r="J14" t="s">
         <v>25</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5.159</v>
-      </c>
-      <c r="J14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -969,92 +996,92 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H15" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="I15" t="n">
-        <v>5.329</v>
+        <v>5.911</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45135.4097222222</v>
+        <v>45136.15625</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F16" t="n">
-        <v>1.45</v>
+        <v>1.095</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H16" t="n">
-        <v>2.75</v>
+        <v>8.79</v>
       </c>
       <c r="I16" t="n">
-        <v>5.329</v>
+        <v>2.701</v>
       </c>
       <c r="J16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45135.4097222222</v>
+        <v>45136.15625</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F17" t="n">
-        <v>1.44</v>
+        <v>1.095</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H17" t="n">
-        <v>2.8</v>
+        <v>8.6</v>
       </c>
       <c r="I17" t="n">
-        <v>5.159</v>
+        <v>2.952</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1065,28 +1092,28 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F18" t="n">
         <v>1.095</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H18" t="n">
-        <v>7.46</v>
+        <v>8.22</v>
       </c>
       <c r="I18" t="n">
-        <v>4.729</v>
+        <v>3.49</v>
       </c>
       <c r="J18" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1097,28 +1124,28 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F19" t="n">
-        <v>1.095</v>
+        <v>1.0855</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H19" t="n">
-        <v>7.27</v>
+        <v>8.79</v>
       </c>
       <c r="I19" t="n">
-        <v>5.079</v>
+        <v>3.5</v>
       </c>
       <c r="J19" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -1129,28 +1156,28 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F20" t="n">
         <v>1.0855</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H20" t="n">
-        <v>7.46</v>
+        <v>8.6</v>
       </c>
       <c r="I20" t="n">
-        <v>5.528</v>
+        <v>3.751</v>
       </c>
       <c r="J20" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -1161,28 +1188,28 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F21" t="n">
         <v>1.0855</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H21" t="n">
-        <v>7.27</v>
+        <v>8.22</v>
       </c>
       <c r="I21" t="n">
-        <v>5.879</v>
+        <v>4.289</v>
       </c>
       <c r="J21" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -1193,28 +1220,28 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F22" t="n">
         <v>1.076</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H22" t="n">
-        <v>7.46</v>
+        <v>8.79</v>
       </c>
       <c r="I22" t="n">
-        <v>6.342</v>
+        <v>4.313</v>
       </c>
       <c r="J22" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -1225,28 +1252,28 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F23" t="n">
         <v>1.076</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H23" t="n">
-        <v>7.27</v>
+        <v>8.6</v>
       </c>
       <c r="I23" t="n">
-        <v>6.692</v>
+        <v>4.565</v>
       </c>
       <c r="J23" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -1257,28 +1284,28 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F24" t="n">
-        <v>1.07</v>
+        <v>1.076</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>8.22</v>
       </c>
       <c r="I24" t="n">
-        <v>5.958</v>
+        <v>5.102</v>
       </c>
       <c r="J24" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -1289,28 +1316,28 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F25" t="n">
         <v>1.09</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I25" t="n">
-        <v>5.076</v>
+        <v>6.029</v>
       </c>
       <c r="J25" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -1321,19 +1348,19 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F26" t="n">
         <v>1.08</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H26" t="n">
         <v>8</v>
@@ -1342,7 +1369,7 @@
         <v>5.093</v>
       </c>
       <c r="J26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
@@ -1353,19 +1380,19 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F27" t="n">
         <v>1.08</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H27" t="n">
         <v>8</v>
@@ -1374,7 +1401,7 @@
         <v>5.093</v>
       </c>
       <c r="J27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -1385,28 +1412,28 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F28" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H28" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="I28" t="n">
-        <v>5.093</v>
+        <v>6.116</v>
       </c>
       <c r="J28" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
@@ -1417,28 +1444,28 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F29" t="n">
-        <v>1.62</v>
+        <v>1.08</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H29" t="n">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="I29" t="n">
-        <v>5.207</v>
+        <v>5.093</v>
       </c>
       <c r="J29" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -1449,28 +1476,28 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F30" t="n">
-        <v>1.6</v>
+        <v>1.08</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H30" t="n">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="I30" t="n">
-        <v>5.978</v>
+        <v>5.093</v>
       </c>
       <c r="J30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
@@ -1481,473 +1508,473 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5.093</v>
+      </c>
+      <c r="J31" t="s">
         <v>22</v>
-      </c>
-      <c r="D31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="G31" t="s">
-        <v>35</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="I31" t="n">
-        <v>5.215</v>
-      </c>
-      <c r="J31" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45136.2743055556</v>
+        <v>45136.15625</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F32" t="n">
-        <v>3.7</v>
+        <v>1.08</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H32" t="n">
-        <v>1.28</v>
+        <v>8</v>
       </c>
       <c r="I32" t="n">
-        <v>5.152</v>
+        <v>5.093</v>
       </c>
       <c r="J32" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45136.2743055556</v>
+        <v>45136.15625</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F33" t="n">
-        <v>3.55</v>
+        <v>1.08</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H33" t="n">
-        <v>1.3</v>
+        <v>8</v>
       </c>
       <c r="I33" t="n">
-        <v>5.092</v>
+        <v>5.093</v>
       </c>
       <c r="J33" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45136.2743055556</v>
+        <v>45136.15625</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F34" t="n">
-        <v>3.75</v>
+        <v>1.08</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H34" t="n">
-        <v>1.27</v>
+        <v>8</v>
       </c>
       <c r="I34" t="n">
-        <v>5.407</v>
+        <v>5.093</v>
       </c>
       <c r="J34" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45136.2743055556</v>
+        <v>45136.15625</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F35" t="n">
-        <v>3.78</v>
+        <v>1.08</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H35" t="n">
-        <v>1.27</v>
+        <v>8</v>
       </c>
       <c r="I35" t="n">
-        <v>5.195</v>
+        <v>5.093</v>
       </c>
       <c r="J35" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45136.3923611111</v>
+        <v>45136.15625</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F36" t="n">
-        <v>1.5415</v>
+        <v>1.57</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H36" t="n">
-        <v>1.038</v>
+        <v>2.36</v>
       </c>
       <c r="I36" t="n">
-        <v>61.211</v>
+        <v>6.067</v>
       </c>
       <c r="J36" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45136.3923611111</v>
+        <v>45136.15625</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F37" t="n">
-        <v>1.494</v>
+        <v>1.57</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H37" t="n">
-        <v>1.038</v>
+        <v>2.4</v>
       </c>
       <c r="I37" t="n">
-        <v>63.274</v>
+        <v>5.361</v>
       </c>
       <c r="J37" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45136.3923611111</v>
+        <v>45136.15625</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F38" t="n">
-        <v>1.4465</v>
+        <v>1.55</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H38" t="n">
-        <v>1.038</v>
+        <v>2.45</v>
       </c>
       <c r="I38" t="n">
-        <v>65.472</v>
+        <v>5.332</v>
       </c>
       <c r="J38" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45136.3923611111</v>
+        <v>45136.15625</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F39" t="n">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H39" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="I39" t="n">
-        <v>5.759</v>
+        <v>6.533</v>
       </c>
       <c r="J39" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45136.3923611111</v>
+        <v>45136.15625</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F40" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H40" t="n">
-        <v>2.02</v>
+        <v>2.4</v>
       </c>
       <c r="I40" t="n">
-        <v>5.061</v>
+        <v>5.361</v>
       </c>
       <c r="J40" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45136.3923611111</v>
+        <v>45136.15625</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F41" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H41" t="n">
-        <v>1.95</v>
+        <v>2.41</v>
       </c>
       <c r="I41" t="n">
-        <v>5.336</v>
+        <v>5.188</v>
       </c>
       <c r="J41" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45136.3923611111</v>
+        <v>45136.15625</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F42" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="I42" t="n">
-        <v>5.556</v>
+        <v>5.332</v>
       </c>
       <c r="J42" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45136.3923611111</v>
+        <v>45136.15625</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F43" t="n">
-        <v>1.81</v>
+        <v>1.57</v>
       </c>
       <c r="G43" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H43" t="n">
-        <v>2.04</v>
+        <v>2.41</v>
       </c>
       <c r="I43" t="n">
-        <v>4.268</v>
+        <v>5.188</v>
       </c>
       <c r="J43" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45136.4027777778</v>
+        <v>45136.15625</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F44" t="n">
-        <v>2.9475</v>
+        <v>1.55</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H44" t="n">
-        <v>1.38</v>
+        <v>2.45</v>
       </c>
       <c r="I44" t="n">
-        <v>6.391</v>
+        <v>5.332</v>
       </c>
       <c r="J44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45136.4027777778</v>
+        <v>45136.15625</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F45" t="n">
-        <v>2.9475</v>
+        <v>1.55</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H45" t="n">
-        <v>1.209</v>
+        <v>2.4</v>
       </c>
       <c r="I45" t="n">
-        <v>16.64</v>
+        <v>6.183</v>
       </c>
       <c r="J45" t="s">
         <v>26</v>
@@ -1955,319 +1982,319 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45136.4027777778</v>
+        <v>45136.2743055556</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F46" t="n">
-        <v>2.71</v>
+        <v>3.5</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H46" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="I46" t="n">
-        <v>9.364</v>
+        <v>6.091</v>
       </c>
       <c r="J46" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45136.4027777778</v>
+        <v>45136.2743055556</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F47" t="n">
-        <v>2.71</v>
+        <v>3.55</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H47" t="n">
-        <v>1.209</v>
+        <v>1.3</v>
       </c>
       <c r="I47" t="n">
-        <v>19.613</v>
+        <v>5.092</v>
       </c>
       <c r="J47" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45136.4027777778</v>
+        <v>45136.2743055556</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F48" t="n">
-        <v>2.349</v>
+        <v>3.7</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H48" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="I48" t="n">
-        <v>15.035</v>
+        <v>5.152</v>
       </c>
       <c r="J48" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45136.4027777778</v>
+        <v>45136.2743055556</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F49" t="n">
-        <v>2.349</v>
+        <v>3.5</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H49" t="n">
-        <v>1.209</v>
+        <v>1.28</v>
       </c>
       <c r="I49" t="n">
-        <v>25.284</v>
+        <v>6.696</v>
       </c>
       <c r="J49" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45136.4027777778</v>
+        <v>45136.2743055556</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F50" t="n">
-        <v>3.15</v>
+        <v>3.57</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H50" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="I50" t="n">
-        <v>5.275</v>
+        <v>4.934</v>
       </c>
       <c r="J50" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45136.4027777778</v>
+        <v>45136.2743055556</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
       </c>
       <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I51" t="n">
+        <v>5.152</v>
+      </c>
+      <c r="J51" t="s">
         <v>22</v>
-      </c>
-      <c r="D51" t="s">
-        <v>43</v>
-      </c>
-      <c r="E51" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="G51" t="s">
-        <v>45</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="I51" t="n">
-        <v>5.329</v>
-      </c>
-      <c r="J51" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45136.4027777778</v>
+        <v>45136.2743055556</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F52" t="n">
-        <v>2.75</v>
+        <v>3.7</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H52" t="n">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="I52" t="n">
-        <v>5.329</v>
+        <v>5.152</v>
       </c>
       <c r="J52" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45136.4027777778</v>
+        <v>45136.2743055556</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F53" t="n">
-        <v>3.19</v>
+        <v>3.57</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H53" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="I53" t="n">
-        <v>4.877</v>
+        <v>4.934</v>
       </c>
       <c r="J53" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45137.1319444444</v>
+        <v>45136.2743055556</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E54" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F54" t="n">
-        <v>2.026</v>
+        <v>3.5</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H54" t="n">
-        <v>1.684</v>
+        <v>1.3</v>
       </c>
       <c r="I54" t="n">
-        <v>8.741</v>
+        <v>5.495</v>
       </c>
       <c r="J54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45137.1319444444</v>
+        <v>45136.2743055556</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E55" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F55" t="n">
-        <v>1.0095</v>
+        <v>3.4</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="H55" t="n">
-        <v>1.684</v>
+        <v>1.29</v>
       </c>
       <c r="I55" t="n">
-        <v>58.441</v>
+        <v>6.931</v>
       </c>
       <c r="J55" t="s">
         <v>26</v>
@@ -2275,287 +2302,287 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45137.1319444444</v>
+        <v>45136.3923611111</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E56" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F56" t="n">
-        <v>2.05</v>
+        <v>2.064</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H56" t="n">
-        <v>1.78</v>
+        <v>1.7885</v>
       </c>
       <c r="I56" t="n">
-        <v>4.96</v>
+        <v>4.362</v>
       </c>
       <c r="J56" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>45137.1319444444</v>
+        <v>45136.3923611111</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E57" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F57" t="n">
-        <v>2.1</v>
+        <v>2.064</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H57" t="n">
-        <v>1.75</v>
+        <v>1.779</v>
       </c>
       <c r="I57" t="n">
-        <v>4.762</v>
+        <v>4.661</v>
       </c>
       <c r="J57" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>45137.1319444444</v>
+        <v>45136.3923611111</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E58" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>2.064</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H58" t="n">
-        <v>1.84</v>
+        <v>1.19</v>
       </c>
       <c r="I58" t="n">
-        <v>4.348</v>
+        <v>32.483</v>
       </c>
       <c r="J58" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>45137.2222222222</v>
+        <v>45136.3923611111</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E59" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F59" t="n">
-        <v>2.805</v>
+        <v>1.931</v>
       </c>
       <c r="G59" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H59" t="n">
-        <v>1.3895</v>
+        <v>1.7885</v>
       </c>
       <c r="I59" t="n">
-        <v>7.619</v>
+        <v>7.699</v>
       </c>
       <c r="J59" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>45137.2222222222</v>
+        <v>45136.3923611111</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E60" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F60" t="n">
-        <v>2.805</v>
+        <v>1.931</v>
       </c>
       <c r="G60" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H60" t="n">
-        <v>1.342</v>
+        <v>1.779</v>
       </c>
       <c r="I60" t="n">
-        <v>10.166</v>
+        <v>7.998</v>
       </c>
       <c r="J60" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>45137.2222222222</v>
+        <v>45136.3923611111</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E61" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F61" t="n">
-        <v>2.615</v>
+        <v>1.931</v>
       </c>
       <c r="G61" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H61" t="n">
-        <v>1.3895</v>
+        <v>1.19</v>
       </c>
       <c r="I61" t="n">
-        <v>10.209</v>
+        <v>35.82</v>
       </c>
       <c r="J61" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>45137.2222222222</v>
+        <v>45136.3923611111</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E62" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F62" t="n">
-        <v>2.615</v>
+        <v>2</v>
       </c>
       <c r="G62" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H62" t="n">
-        <v>1.342</v>
+        <v>1.8</v>
       </c>
       <c r="I62" t="n">
-        <v>12.757</v>
+        <v>5.556</v>
       </c>
       <c r="J62" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>45137.2222222222</v>
+        <v>45136.3923611111</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E63" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F63" t="n">
-        <v>2.85</v>
+        <v>2.02</v>
       </c>
       <c r="G63" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H63" t="n">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="I63" t="n">
-        <v>4.532</v>
+        <v>5.061</v>
       </c>
       <c r="J63" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>45137.2222222222</v>
+        <v>45136.3923611111</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E64" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F64" t="n">
-        <v>2.85</v>
+        <v>2</v>
       </c>
       <c r="G64" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H64" t="n">
-        <v>1.42</v>
+        <v>1.8</v>
       </c>
       <c r="I64" t="n">
-        <v>5.51</v>
+        <v>5.556</v>
       </c>
       <c r="J64" t="s">
         <v>18</v>
@@ -2563,31 +2590,31 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>45137.2222222222</v>
+        <v>45136.3923611111</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E65" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F65" t="n">
-        <v>2.9</v>
+        <v>1.98</v>
       </c>
       <c r="G65" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H65" t="n">
-        <v>1.4</v>
+        <v>1.79</v>
       </c>
       <c r="I65" t="n">
-        <v>5.911</v>
+        <v>6.371</v>
       </c>
       <c r="J65" t="s">
         <v>19</v>
@@ -2595,223 +2622,223 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>45137.2222222222</v>
+        <v>45136.3923611111</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E66" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F66" t="n">
-        <v>2.84</v>
+        <v>2</v>
       </c>
       <c r="G66" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H66" t="n">
-        <v>1.43</v>
+        <v>1.82</v>
       </c>
       <c r="I66" t="n">
-        <v>5.141</v>
+        <v>4.945</v>
       </c>
       <c r="J66" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>45137.2777777778</v>
+        <v>45136.3923611111</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E67" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F67" t="n">
-        <v>1.931</v>
+        <v>2</v>
       </c>
       <c r="G67" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="H67" t="n">
-        <v>1.874</v>
+        <v>1.85</v>
       </c>
       <c r="I67" t="n">
-        <v>5.148</v>
+        <v>4.054</v>
       </c>
       <c r="J67" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>45137.2777777778</v>
+        <v>45136.3923611111</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
       </c>
       <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s">
+        <v>39</v>
+      </c>
+      <c r="E68" t="s">
+        <v>40</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2</v>
+      </c>
+      <c r="G68" t="s">
+        <v>41</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I68" t="n">
+        <v>5.556</v>
+      </c>
+      <c r="J68" t="s">
         <v>22</v>
-      </c>
-      <c r="D68" t="s">
-        <v>51</v>
-      </c>
-      <c r="E68" t="s">
-        <v>52</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1.931</v>
-      </c>
-      <c r="G68" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1.0095</v>
-      </c>
-      <c r="I68" t="n">
-        <v>50.846</v>
-      </c>
-      <c r="J68" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>45137.2777777778</v>
+        <v>45136.3923611111</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E69" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F69" t="n">
-        <v>1.912</v>
+        <v>2.05</v>
       </c>
       <c r="G69" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="H69" t="n">
-        <v>1.874</v>
+        <v>1.77</v>
       </c>
       <c r="I69" t="n">
-        <v>5.663</v>
+        <v>5.278</v>
       </c>
       <c r="J69" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>45137.2777777778</v>
+        <v>45136.3923611111</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E70" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F70" t="n">
-        <v>1.912</v>
+        <v>2</v>
       </c>
       <c r="G70" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="H70" t="n">
-        <v>1.0095</v>
+        <v>1.85</v>
       </c>
       <c r="I70" t="n">
-        <v>51.36</v>
+        <v>4.054</v>
       </c>
       <c r="J70" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>45137.2777777778</v>
+        <v>45136.3923611111</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E71" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F71" t="n">
-        <v>1.722</v>
+        <v>2.1</v>
       </c>
       <c r="G71" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="H71" t="n">
-        <v>1.874</v>
+        <v>1.74</v>
       </c>
       <c r="I71" t="n">
-        <v>11.434</v>
+        <v>5.09</v>
       </c>
       <c r="J71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>45137.2777777778</v>
+        <v>45136.3923611111</v>
       </c>
       <c r="B72" t="s">
         <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E72" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F72" t="n">
-        <v>1.722</v>
+        <v>1.99</v>
       </c>
       <c r="G72" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="H72" t="n">
-        <v>1.0095</v>
+        <v>1.77</v>
       </c>
       <c r="I72" t="n">
-        <v>57.131</v>
+        <v>6.748</v>
       </c>
       <c r="J72" t="s">
         <v>26</v>
@@ -2819,130 +2846,3170 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>45137.2777777778</v>
+        <v>45136.4027777778</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E73" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F73" t="n">
-        <v>1.76</v>
+        <v>2.9</v>
       </c>
       <c r="G73" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="H73" t="n">
-        <v>2.06</v>
+        <v>1.437</v>
       </c>
       <c r="I73" t="n">
-        <v>5.362</v>
+        <v>4.072</v>
       </c>
       <c r="J73" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>45137.2777777778</v>
+        <v>45136.4027777778</v>
       </c>
       <c r="B74" t="s">
         <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E74" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F74" t="n">
-        <v>1.82</v>
+        <v>2.9</v>
       </c>
       <c r="G74" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="I74" t="n">
-        <v>4.945</v>
+        <v>6.947</v>
       </c>
       <c r="J74" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>45137.2777777778</v>
+        <v>45136.4027777778</v>
       </c>
       <c r="B75" t="s">
         <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E75" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F75" t="n">
-        <v>1.85</v>
+        <v>2.767</v>
       </c>
       <c r="G75" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="H75" t="n">
-        <v>1.95</v>
+        <v>1.437</v>
       </c>
       <c r="I75" t="n">
-        <v>5.336</v>
+        <v>5.73</v>
       </c>
       <c r="J75" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
+        <v>45136.4027777778</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2.767</v>
+      </c>
+      <c r="G76" t="s">
+        <v>44</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I76" t="n">
+        <v>8.604</v>
+      </c>
+      <c r="J76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>45136.4027777778</v>
+      </c>
+      <c r="B77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s">
+        <v>42</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="G77" t="s">
+        <v>44</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1.437</v>
+      </c>
+      <c r="I77" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="J77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>45136.4027777778</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="G78" t="s">
+        <v>44</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I78" t="n">
+        <v>9.364</v>
+      </c>
+      <c r="J78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>45136.4027777778</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s">
+        <v>42</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G79" t="s">
+        <v>44</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I79" t="n">
+        <v>5.841</v>
+      </c>
+      <c r="J79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>45136.4027777778</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s">
+        <v>42</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G80" t="s">
+        <v>44</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I80" t="n">
+        <v>5.145</v>
+      </c>
+      <c r="J80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>45136.4027777778</v>
+      </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s">
+        <v>42</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G81" t="s">
+        <v>44</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I81" t="n">
+        <v>5.327</v>
+      </c>
+      <c r="J81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>45136.4027777778</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s">
+        <v>42</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G82" t="s">
+        <v>44</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I82" t="n">
+        <v>6.947</v>
+      </c>
+      <c r="J82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>45136.4027777778</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s">
+        <v>42</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G83" t="s">
+        <v>44</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I83" t="n">
+        <v>5.327</v>
+      </c>
+      <c r="J83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>45136.4027777778</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
+        <v>42</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="G84" t="s">
+        <v>44</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I84" t="n">
+        <v>5.052</v>
+      </c>
+      <c r="J84" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>45136.4027777778</v>
+      </c>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
+        <v>42</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="n">
+        <v>3</v>
+      </c>
+      <c r="G85" t="s">
+        <v>44</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I85" t="n">
+        <v>4.762</v>
+      </c>
+      <c r="J85" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>45136.4027777778</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="G86" t="s">
+        <v>44</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5.018</v>
+      </c>
+      <c r="J86" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>45136.4027777778</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s">
+        <v>42</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="G87" t="s">
+        <v>44</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I87" t="n">
+        <v>5.052</v>
+      </c>
+      <c r="J87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>45136.4027777778</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s">
+        <v>42</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G88" t="s">
+        <v>44</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I88" t="n">
+        <v>4.905</v>
+      </c>
+      <c r="J88" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>45136.4027777778</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s">
+        <v>42</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G89" t="s">
+        <v>44</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I89" t="n">
+        <v>6.891</v>
+      </c>
+      <c r="J89" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>45137.1319444444</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s">
+        <v>45</v>
+      </c>
+      <c r="E90" t="s">
+        <v>46</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.2945</v>
+      </c>
+      <c r="G90" t="s">
+        <v>47</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="I90" t="n">
+        <v>35.322</v>
+      </c>
+      <c r="J90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>45137.1319444444</v>
+      </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s">
+        <v>45</v>
+      </c>
+      <c r="E91" t="s">
+        <v>46</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1.2945</v>
+      </c>
+      <c r="G91" t="s">
+        <v>47</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1.6745</v>
+      </c>
+      <c r="I91" t="n">
+        <v>36.969</v>
+      </c>
+      <c r="J91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>45137.1319444444</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s">
+        <v>45</v>
+      </c>
+      <c r="E92" t="s">
+        <v>46</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.2945</v>
+      </c>
+      <c r="G92" t="s">
+        <v>47</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1.5225</v>
+      </c>
+      <c r="I92" t="n">
+        <v>42.931</v>
+      </c>
+      <c r="J92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>45137.1319444444</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s">
+        <v>45</v>
+      </c>
+      <c r="E93" t="s">
+        <v>46</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G93" t="s">
+        <v>47</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I93" t="n">
+        <v>6.002</v>
+      </c>
+      <c r="J93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>45137.1319444444</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s">
+        <v>45</v>
+      </c>
+      <c r="E94" t="s">
+        <v>46</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G94" t="s">
+        <v>47</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I94" t="n">
+        <v>5.362</v>
+      </c>
+      <c r="J94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>45137.1319444444</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s">
+        <v>45</v>
+      </c>
+      <c r="E95" t="s">
+        <v>46</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2</v>
+      </c>
+      <c r="G95" t="s">
+        <v>47</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I95" t="n">
+        <v>5.556</v>
+      </c>
+      <c r="J95" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>45137.1319444444</v>
+      </c>
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s">
+        <v>45</v>
+      </c>
+      <c r="E96" t="s">
+        <v>46</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2</v>
+      </c>
+      <c r="G96" t="s">
+        <v>47</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I96" t="n">
+        <v>6.497</v>
+      </c>
+      <c r="J96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>45137.1319444444</v>
+      </c>
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s">
+        <v>45</v>
+      </c>
+      <c r="E97" t="s">
+        <v>46</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G97" t="s">
+        <v>47</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I97" t="n">
+        <v>5.423</v>
+      </c>
+      <c r="J97" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>45137.1319444444</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s">
+        <v>45</v>
+      </c>
+      <c r="E98" t="s">
+        <v>46</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G98" t="s">
+        <v>47</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I98" t="n">
+        <v>4.396</v>
+      </c>
+      <c r="J98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>45137.1319444444</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s">
+        <v>45</v>
+      </c>
+      <c r="E99" t="s">
+        <v>46</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G99" t="s">
+        <v>47</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I99" t="n">
+        <v>5.278</v>
+      </c>
+      <c r="J99" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>45137.1319444444</v>
+      </c>
+      <c r="B100" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s">
+        <v>45</v>
+      </c>
+      <c r="E100" t="s">
+        <v>46</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G100" t="s">
+        <v>47</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I100" t="n">
+        <v>5.423</v>
+      </c>
+      <c r="J100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>45137.1319444444</v>
+      </c>
+      <c r="B101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s">
+        <v>45</v>
+      </c>
+      <c r="E101" t="s">
+        <v>46</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G101" t="s">
+        <v>47</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I101" t="n">
+        <v>4.396</v>
+      </c>
+      <c r="J101" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>45137.1319444444</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>45</v>
+      </c>
+      <c r="E102" t="s">
+        <v>46</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G102" t="s">
+        <v>47</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I102" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="J102" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>45137.1319444444</v>
+      </c>
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s">
+        <v>45</v>
+      </c>
+      <c r="E103" t="s">
+        <v>46</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G103" t="s">
+        <v>47</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I103" t="n">
+        <v>6.823</v>
+      </c>
+      <c r="J103" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>45137.2222222222</v>
+      </c>
+      <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s">
+        <v>48</v>
+      </c>
+      <c r="E104" t="s">
+        <v>49</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2.615</v>
+      </c>
+      <c r="G104" t="s">
+        <v>50</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1.5225</v>
+      </c>
+      <c r="I104" t="n">
+        <v>3.922</v>
+      </c>
+      <c r="J104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>45137.2222222222</v>
+      </c>
+      <c r="B105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s">
+        <v>48</v>
+      </c>
+      <c r="E105" t="s">
+        <v>49</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2.615</v>
+      </c>
+      <c r="G105" t="s">
+        <v>50</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1.513</v>
+      </c>
+      <c r="I105" t="n">
+        <v>4.335</v>
+      </c>
+      <c r="J105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>45137.2222222222</v>
+      </c>
+      <c r="B106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s">
+        <v>48</v>
+      </c>
+      <c r="E106" t="s">
+        <v>49</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2.615</v>
+      </c>
+      <c r="G106" t="s">
+        <v>50</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1.475</v>
+      </c>
+      <c r="I106" t="n">
+        <v>6.038</v>
+      </c>
+      <c r="J106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>45137.2222222222</v>
+      </c>
+      <c r="B107" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s">
+        <v>48</v>
+      </c>
+      <c r="E107" t="s">
+        <v>49</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2.425</v>
+      </c>
+      <c r="G107" t="s">
+        <v>50</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1.5225</v>
+      </c>
+      <c r="I107" t="n">
+        <v>6.919</v>
+      </c>
+      <c r="J107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>45137.2222222222</v>
+      </c>
+      <c r="B108" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s">
+        <v>48</v>
+      </c>
+      <c r="E108" t="s">
+        <v>49</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2.425</v>
+      </c>
+      <c r="G108" t="s">
+        <v>50</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1.513</v>
+      </c>
+      <c r="I108" t="n">
+        <v>7.331</v>
+      </c>
+      <c r="J108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>45137.2222222222</v>
+      </c>
+      <c r="B109" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s">
+        <v>48</v>
+      </c>
+      <c r="E109" t="s">
+        <v>49</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2.425</v>
+      </c>
+      <c r="G109" t="s">
+        <v>50</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1.475</v>
+      </c>
+      <c r="I109" t="n">
+        <v>9.034</v>
+      </c>
+      <c r="J109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>45137.2222222222</v>
+      </c>
+      <c r="B110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s">
+        <v>48</v>
+      </c>
+      <c r="E110" t="s">
+        <v>49</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G110" t="s">
+        <v>50</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="I110" t="n">
+        <v>6.195</v>
+      </c>
+      <c r="J110" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>45137.2222222222</v>
+      </c>
+      <c r="B111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s">
+        <v>48</v>
+      </c>
+      <c r="E111" t="s">
+        <v>49</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="G111" t="s">
+        <v>50</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="I111" t="n">
+        <v>5.303</v>
+      </c>
+      <c r="J111" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>45137.2222222222</v>
+      </c>
+      <c r="B112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s">
+        <v>48</v>
+      </c>
+      <c r="E112" t="s">
+        <v>49</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G112" t="s">
+        <v>50</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="I112" t="n">
+        <v>5.159</v>
+      </c>
+      <c r="J112" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>45137.2222222222</v>
+      </c>
+      <c r="B113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s">
+        <v>48</v>
+      </c>
+      <c r="E113" t="s">
+        <v>49</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G113" t="s">
+        <v>50</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="I113" t="n">
+        <v>6.195</v>
+      </c>
+      <c r="J113" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>45137.2222222222</v>
+      </c>
+      <c r="B114" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s">
+        <v>48</v>
+      </c>
+      <c r="E114" t="s">
+        <v>49</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="G114" t="s">
+        <v>50</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="I114" t="n">
+        <v>5.303</v>
+      </c>
+      <c r="J114" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>45137.2222222222</v>
+      </c>
+      <c r="B115" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s">
+        <v>48</v>
+      </c>
+      <c r="E115" t="s">
+        <v>49</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G115" t="s">
+        <v>50</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I115" t="n">
+        <v>4.835</v>
+      </c>
+      <c r="J115" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>45137.2222222222</v>
+      </c>
+      <c r="B116" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s">
+        <v>48</v>
+      </c>
+      <c r="E116" t="s">
+        <v>49</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G116" t="s">
+        <v>50</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="I116" t="n">
+        <v>5.064</v>
+      </c>
+      <c r="J116" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>45137.2222222222</v>
+      </c>
+      <c r="B117" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s">
+        <v>48</v>
+      </c>
+      <c r="E117" t="s">
+        <v>49</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="G117" t="s">
+        <v>50</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="I117" t="n">
+        <v>5.303</v>
+      </c>
+      <c r="J117" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>45137.2222222222</v>
+      </c>
+      <c r="B118" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s">
+        <v>48</v>
+      </c>
+      <c r="E118" t="s">
+        <v>49</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G118" t="s">
+        <v>50</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I118" t="n">
+        <v>4.835</v>
+      </c>
+      <c r="J118" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>45137.2222222222</v>
+      </c>
+      <c r="B119" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s">
+        <v>48</v>
+      </c>
+      <c r="E119" t="s">
+        <v>49</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G119" t="s">
+        <v>50</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="I119" t="n">
+        <v>5.064</v>
+      </c>
+      <c r="J119" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>45137.2222222222</v>
+      </c>
+      <c r="B120" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s">
+        <v>48</v>
+      </c>
+      <c r="E120" t="s">
+        <v>49</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="G120" t="s">
+        <v>50</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I120" t="n">
+        <v>6.701</v>
+      </c>
+      <c r="J120" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
         <v>45137.2777777778</v>
       </c>
-      <c r="B76" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B121" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s">
+        <v>51</v>
+      </c>
+      <c r="E121" t="s">
+        <v>52</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2.064</v>
+      </c>
+      <c r="G121" t="s">
+        <v>53</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1.4845</v>
+      </c>
+      <c r="I121" t="n">
+        <v>15.812</v>
+      </c>
+      <c r="J121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>45137.2777777778</v>
+      </c>
+      <c r="B122" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s">
+        <v>51</v>
+      </c>
+      <c r="E122" t="s">
+        <v>52</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2.064</v>
+      </c>
+      <c r="G122" t="s">
+        <v>53</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1.1995</v>
+      </c>
+      <c r="I122" t="n">
+        <v>31.818</v>
+      </c>
+      <c r="J122" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>45137.2777777778</v>
+      </c>
+      <c r="B123" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s">
+        <v>51</v>
+      </c>
+      <c r="E123" t="s">
+        <v>52</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2.045</v>
+      </c>
+      <c r="G123" t="s">
+        <v>53</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1.4845</v>
+      </c>
+      <c r="I123" t="n">
+        <v>16.263</v>
+      </c>
+      <c r="J123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>45137.2777777778</v>
+      </c>
+      <c r="B124" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s">
+        <v>51</v>
+      </c>
+      <c r="E124" t="s">
+        <v>52</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2.045</v>
+      </c>
+      <c r="G124" t="s">
+        <v>53</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1.1995</v>
+      </c>
+      <c r="I124" t="n">
+        <v>32.268</v>
+      </c>
+      <c r="J124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>45137.2777777778</v>
+      </c>
+      <c r="B125" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s">
+        <v>51</v>
+      </c>
+      <c r="E125" t="s">
+        <v>52</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G125" t="s">
+        <v>53</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I125" t="n">
+        <v>5.278</v>
+      </c>
+      <c r="J125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>45137.2777777778</v>
+      </c>
+      <c r="B126" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s">
+        <v>51</v>
+      </c>
+      <c r="E126" t="s">
+        <v>52</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G126" t="s">
+        <v>53</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I126" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="J126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>45137.2777777778</v>
+      </c>
+      <c r="B127" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s">
+        <v>51</v>
+      </c>
+      <c r="E127" t="s">
+        <v>52</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G127" t="s">
+        <v>53</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I127" t="n">
+        <v>5.335</v>
+      </c>
+      <c r="J127" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>45137.2777777778</v>
+      </c>
+      <c r="B128" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s">
+        <v>51</v>
+      </c>
+      <c r="E128" t="s">
+        <v>52</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G128" t="s">
+        <v>53</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I128" t="n">
+        <v>6.648</v>
+      </c>
+      <c r="J128" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>45137.2777777778</v>
+      </c>
+      <c r="B129" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s">
+        <v>51</v>
+      </c>
+      <c r="E129" t="s">
+        <v>52</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G129" t="s">
+        <v>53</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I129" t="n">
+        <v>5.278</v>
+      </c>
+      <c r="J129" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>45137.2777777778</v>
+      </c>
+      <c r="B130" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s">
+        <v>51</v>
+      </c>
+      <c r="E130" t="s">
+        <v>52</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G130" t="s">
+        <v>53</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I130" t="n">
+        <v>4.336</v>
+      </c>
+      <c r="J130" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>45137.2777777778</v>
+      </c>
+      <c r="B131" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s">
+        <v>51</v>
+      </c>
+      <c r="E131" t="s">
+        <v>52</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G131" t="s">
+        <v>53</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I131" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="J131" t="s">
         <v>22</v>
       </c>
-      <c r="D76" t="s">
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>45137.2777777778</v>
+      </c>
+      <c r="B132" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s">
         <v>51</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E132" t="s">
         <v>52</v>
       </c>
-      <c r="F76" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="F132" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G132" t="s">
+        <v>53</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I132" t="n">
+        <v>5.423</v>
+      </c>
+      <c r="J132" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>45137.2777777778</v>
+      </c>
+      <c r="B133" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s">
+        <v>51</v>
+      </c>
+      <c r="E133" t="s">
+        <v>52</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G133" t="s">
+        <v>53</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I133" t="n">
+        <v>4.336</v>
+      </c>
+      <c r="J133" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>45137.2777777778</v>
+      </c>
+      <c r="B134" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s">
+        <v>51</v>
+      </c>
+      <c r="E134" t="s">
+        <v>52</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G134" t="s">
+        <v>53</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I134" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="J134" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>45137.2777777778</v>
+      </c>
+      <c r="B135" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s">
+        <v>51</v>
+      </c>
+      <c r="E135" t="s">
+        <v>52</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G135" t="s">
+        <v>53</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I135" t="n">
+        <v>6.491</v>
+      </c>
+      <c r="J135" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>45142.4097222222</v>
+      </c>
+      <c r="B136" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" t="s">
+        <v>54</v>
+      </c>
+      <c r="D136" t="s">
+        <v>55</v>
+      </c>
+      <c r="E136" t="s">
+        <v>31</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1.5605</v>
+      </c>
+      <c r="G136" t="s">
+        <v>49</v>
+      </c>
+      <c r="H136" t="n">
+        <v>2.425</v>
+      </c>
+      <c r="I136" t="n">
+        <v>5.319</v>
+      </c>
+      <c r="J136" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>45142.4097222222</v>
+      </c>
+      <c r="B137" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" t="s">
+        <v>54</v>
+      </c>
+      <c r="D137" t="s">
+        <v>55</v>
+      </c>
+      <c r="E137" t="s">
+        <v>31</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1.5605</v>
+      </c>
+      <c r="G137" t="s">
+        <v>49</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2.235</v>
+      </c>
+      <c r="I137" t="n">
+        <v>8.825</v>
+      </c>
+      <c r="J137" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>45142.4097222222</v>
+      </c>
+      <c r="B138" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" t="s">
+        <v>54</v>
+      </c>
+      <c r="D138" t="s">
+        <v>55</v>
+      </c>
+      <c r="E138" t="s">
+        <v>31</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1.5605</v>
+      </c>
+      <c r="G138" t="s">
+        <v>49</v>
+      </c>
+      <c r="H138" t="n">
+        <v>2.083</v>
+      </c>
+      <c r="I138" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="J138" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>45142.4097222222</v>
+      </c>
+      <c r="B139" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" t="s">
+        <v>54</v>
+      </c>
+      <c r="D139" t="s">
+        <v>55</v>
+      </c>
+      <c r="E139" t="s">
+        <v>31</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1.5035</v>
+      </c>
+      <c r="G139" t="s">
+        <v>49</v>
+      </c>
+      <c r="H139" t="n">
+        <v>2.425</v>
+      </c>
+      <c r="I139" t="n">
+        <v>7.749</v>
+      </c>
+      <c r="J139" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>45142.4097222222</v>
+      </c>
+      <c r="B140" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" t="s">
+        <v>54</v>
+      </c>
+      <c r="D140" t="s">
+        <v>55</v>
+      </c>
+      <c r="E140" t="s">
+        <v>31</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1.5035</v>
+      </c>
+      <c r="G140" t="s">
+        <v>49</v>
+      </c>
+      <c r="H140" t="n">
+        <v>2.235</v>
+      </c>
+      <c r="I140" t="n">
+        <v>11.254</v>
+      </c>
+      <c r="J140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>45142.4097222222</v>
+      </c>
+      <c r="B141" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" t="s">
+        <v>54</v>
+      </c>
+      <c r="D141" t="s">
+        <v>55</v>
+      </c>
+      <c r="E141" t="s">
+        <v>31</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1.5035</v>
+      </c>
+      <c r="G141" t="s">
+        <v>49</v>
+      </c>
+      <c r="H141" t="n">
+        <v>2.083</v>
+      </c>
+      <c r="I141" t="n">
+        <v>14.519</v>
+      </c>
+      <c r="J141" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>45142.4097222222</v>
+      </c>
+      <c r="B142" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" t="s">
+        <v>54</v>
+      </c>
+      <c r="D142" t="s">
+        <v>55</v>
+      </c>
+      <c r="E142" t="s">
+        <v>31</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1.456</v>
+      </c>
+      <c r="G142" t="s">
+        <v>49</v>
+      </c>
+      <c r="H142" t="n">
+        <v>2.425</v>
+      </c>
+      <c r="I142" t="n">
+        <v>9.918</v>
+      </c>
+      <c r="J142" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>45142.4097222222</v>
+      </c>
+      <c r="B143" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" t="s">
+        <v>54</v>
+      </c>
+      <c r="D143" t="s">
+        <v>55</v>
+      </c>
+      <c r="E143" t="s">
+        <v>31</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1.456</v>
+      </c>
+      <c r="G143" t="s">
+        <v>49</v>
+      </c>
+      <c r="H143" t="n">
+        <v>2.235</v>
+      </c>
+      <c r="I143" t="n">
+        <v>13.424</v>
+      </c>
+      <c r="J143" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>45142.4097222222</v>
+      </c>
+      <c r="B144" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" t="s">
+        <v>54</v>
+      </c>
+      <c r="D144" t="s">
+        <v>55</v>
+      </c>
+      <c r="E144" t="s">
+        <v>31</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1.456</v>
+      </c>
+      <c r="G144" t="s">
+        <v>49</v>
+      </c>
+      <c r="H144" t="n">
+        <v>2.083</v>
+      </c>
+      <c r="I144" t="n">
+        <v>16.689</v>
+      </c>
+      <c r="J144" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>45142.4097222222</v>
+      </c>
+      <c r="B145" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" t="s">
+        <v>54</v>
+      </c>
+      <c r="D145" t="s">
+        <v>55</v>
+      </c>
+      <c r="E145" t="s">
+        <v>31</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G145" t="s">
+        <v>49</v>
+      </c>
+      <c r="H145" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="I145" t="n">
+        <v>4.919</v>
+      </c>
+      <c r="J145" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>45143.15625</v>
+      </c>
+      <c r="B146" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" t="s">
+        <v>54</v>
+      </c>
+      <c r="D146" t="s">
+        <v>56</v>
+      </c>
+      <c r="E146" t="s">
+        <v>40</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1.0095</v>
+      </c>
+      <c r="G146" t="s">
+        <v>52</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1.0095</v>
+      </c>
+      <c r="I146" t="n">
+        <v>98.118</v>
+      </c>
+      <c r="J146" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>45143.15625</v>
+      </c>
+      <c r="B147" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" t="s">
+        <v>54</v>
+      </c>
+      <c r="D147" t="s">
+        <v>56</v>
+      </c>
+      <c r="E147" t="s">
+        <v>40</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G147" t="s">
+        <v>52</v>
+      </c>
+      <c r="H147" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I147" t="n">
+        <v>5.087</v>
+      </c>
+      <c r="J147" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>45143.1736111111</v>
+      </c>
+      <c r="B148" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" t="s">
+        <v>54</v>
+      </c>
+      <c r="D148" t="s">
+        <v>57</v>
+      </c>
+      <c r="E148" t="s">
+        <v>43</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1.323</v>
+      </c>
+      <c r="G148" t="s">
+        <v>36</v>
+      </c>
+      <c r="H148" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I148" t="n">
+        <v>10.069</v>
+      </c>
+      <c r="J148" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>45143.1736111111</v>
+      </c>
+      <c r="B149" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" t="s">
+        <v>54</v>
+      </c>
+      <c r="D149" t="s">
+        <v>57</v>
+      </c>
+      <c r="E149" t="s">
+        <v>43</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1.2945</v>
+      </c>
+      <c r="G149" t="s">
+        <v>36</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I149" t="n">
+        <v>11.733</v>
+      </c>
+      <c r="J149" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>45143.1736111111</v>
+      </c>
+      <c r="B150" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" t="s">
+        <v>54</v>
+      </c>
+      <c r="D150" t="s">
+        <v>57</v>
+      </c>
+      <c r="E150" t="s">
+        <v>43</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1.266</v>
+      </c>
+      <c r="G150" t="s">
+        <v>36</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I150" t="n">
+        <v>13.472</v>
+      </c>
+      <c r="J150" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>45143.1736111111</v>
+      </c>
+      <c r="B151" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" t="s">
+        <v>54</v>
+      </c>
+      <c r="D151" t="s">
+        <v>57</v>
+      </c>
+      <c r="E151" t="s">
+        <v>43</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G151" t="s">
+        <v>36</v>
+      </c>
+      <c r="H151" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="I151" t="n">
+        <v>5.238</v>
+      </c>
+      <c r="J151" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>45143.2743055556</v>
+      </c>
+      <c r="B152" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" t="s">
+        <v>54</v>
+      </c>
+      <c r="D152" t="s">
+        <v>58</v>
+      </c>
+      <c r="E152" t="s">
+        <v>46</v>
+      </c>
+      <c r="F152" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G152" t="s">
+        <v>13</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I152" t="n">
+        <v>4.961</v>
+      </c>
+      <c r="J152" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>45143.3923611111</v>
+      </c>
+      <c r="B153" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" t="s">
+        <v>54</v>
+      </c>
+      <c r="D153" t="s">
+        <v>59</v>
+      </c>
+      <c r="E153" t="s">
+        <v>28</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1.5415</v>
+      </c>
+      <c r="G153" t="s">
+        <v>44</v>
+      </c>
+      <c r="H153" t="n">
+        <v>2.463</v>
+      </c>
+      <c r="I153" t="n">
+        <v>5.473</v>
+      </c>
+      <c r="J153" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>45143.3923611111</v>
+      </c>
+      <c r="B154" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" t="s">
+        <v>54</v>
+      </c>
+      <c r="D154" t="s">
+        <v>59</v>
+      </c>
+      <c r="E154" t="s">
+        <v>28</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1.5415</v>
+      </c>
+      <c r="G154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H154" t="n">
+        <v>2.235</v>
+      </c>
+      <c r="I154" t="n">
+        <v>9.615</v>
+      </c>
+      <c r="J154" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>45143.3923611111</v>
+      </c>
+      <c r="B155" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155" t="s">
+        <v>54</v>
+      </c>
+      <c r="D155" t="s">
+        <v>59</v>
+      </c>
+      <c r="E155" t="s">
+        <v>28</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1.5415</v>
+      </c>
+      <c r="G155" t="s">
+        <v>44</v>
+      </c>
+      <c r="H155" t="n">
+        <v>2.083</v>
+      </c>
+      <c r="I155" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="J155" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>45143.3923611111</v>
+      </c>
+      <c r="B156" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" t="s">
+        <v>54</v>
+      </c>
+      <c r="D156" t="s">
+        <v>59</v>
+      </c>
+      <c r="E156" t="s">
+        <v>28</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1.494</v>
+      </c>
+      <c r="G156" t="s">
+        <v>44</v>
+      </c>
+      <c r="H156" t="n">
+        <v>2.463</v>
+      </c>
+      <c r="I156" t="n">
+        <v>7.535</v>
+      </c>
+      <c r="J156" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>45143.3923611111</v>
+      </c>
+      <c r="B157" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" t="s">
+        <v>54</v>
+      </c>
+      <c r="D157" t="s">
+        <v>59</v>
+      </c>
+      <c r="E157" t="s">
+        <v>28</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1.494</v>
+      </c>
+      <c r="G157" t="s">
+        <v>44</v>
+      </c>
+      <c r="H157" t="n">
+        <v>2.235</v>
+      </c>
+      <c r="I157" t="n">
+        <v>11.677</v>
+      </c>
+      <c r="J157" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>45143.3923611111</v>
+      </c>
+      <c r="B158" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" t="s">
+        <v>54</v>
+      </c>
+      <c r="D158" t="s">
+        <v>59</v>
+      </c>
+      <c r="E158" t="s">
+        <v>28</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1.494</v>
+      </c>
+      <c r="G158" t="s">
+        <v>44</v>
+      </c>
+      <c r="H158" t="n">
+        <v>2.083</v>
+      </c>
+      <c r="I158" t="n">
+        <v>14.942</v>
+      </c>
+      <c r="J158" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>45143.3923611111</v>
+      </c>
+      <c r="B159" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" t="s">
+        <v>54</v>
+      </c>
+      <c r="D159" t="s">
+        <v>59</v>
+      </c>
+      <c r="E159" t="s">
+        <v>28</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1.4465</v>
+      </c>
+      <c r="G159" t="s">
+        <v>44</v>
+      </c>
+      <c r="H159" t="n">
+        <v>2.463</v>
+      </c>
+      <c r="I159" t="n">
+        <v>9.733</v>
+      </c>
+      <c r="J159" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>45143.3923611111</v>
+      </c>
+      <c r="B160" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" t="s">
+        <v>54</v>
+      </c>
+      <c r="D160" t="s">
+        <v>59</v>
+      </c>
+      <c r="E160" t="s">
+        <v>28</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1.4465</v>
+      </c>
+      <c r="G160" t="s">
+        <v>44</v>
+      </c>
+      <c r="H160" t="n">
+        <v>2.235</v>
+      </c>
+      <c r="I160" t="n">
+        <v>13.875</v>
+      </c>
+      <c r="J160" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>45143.3923611111</v>
+      </c>
+      <c r="B161" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161" t="s">
+        <v>54</v>
+      </c>
+      <c r="D161" t="s">
+        <v>59</v>
+      </c>
+      <c r="E161" t="s">
+        <v>28</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1.4465</v>
+      </c>
+      <c r="G161" t="s">
+        <v>44</v>
+      </c>
+      <c r="H161" t="n">
+        <v>2.083</v>
+      </c>
+      <c r="I161" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="J161" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>45143.3923611111</v>
+      </c>
+      <c r="B162" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162" t="s">
+        <v>54</v>
+      </c>
+      <c r="D162" t="s">
+        <v>59</v>
+      </c>
+      <c r="E162" t="s">
+        <v>28</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G162" t="s">
+        <v>44</v>
+      </c>
+      <c r="H162" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I162" t="n">
+        <v>4.935</v>
+      </c>
+      <c r="J162" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>45143.3958333333</v>
+      </c>
+      <c r="B163" t="s">
+        <v>10</v>
+      </c>
+      <c r="C163" t="s">
+        <v>54</v>
+      </c>
+      <c r="D163" t="s">
+        <v>60</v>
+      </c>
+      <c r="E163" t="s">
+        <v>32</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G163" t="s">
+        <v>41</v>
+      </c>
+      <c r="H163" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I163" t="n">
+        <v>4.973</v>
+      </c>
+      <c r="J163" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>45144.1319444444</v>
+      </c>
+      <c r="B164" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164" t="s">
+        <v>54</v>
+      </c>
+      <c r="D164" t="s">
+        <v>61</v>
+      </c>
+      <c r="E164" t="s">
+        <v>53</v>
+      </c>
+      <c r="F164" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G164" t="s">
+        <v>50</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I164" t="n">
+        <v>4.961</v>
+      </c>
+      <c r="J164" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>45144.2222222222</v>
+      </c>
+      <c r="B165" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165" t="s">
+        <v>54</v>
+      </c>
+      <c r="D165" t="s">
+        <v>62</v>
+      </c>
+      <c r="E165" t="s">
+        <v>47</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2.995</v>
+      </c>
+      <c r="G165" t="s">
         <v>14</v>
       </c>
-      <c r="H76" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="I76" t="n">
-        <v>4.268</v>
-      </c>
-      <c r="J76" t="s">
-        <v>29</v>
+      <c r="H165" t="n">
+        <v>1.3515</v>
+      </c>
+      <c r="I165" t="n">
+        <v>7.381</v>
+      </c>
+      <c r="J165" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>45144.2222222222</v>
+      </c>
+      <c r="B166" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166" t="s">
+        <v>54</v>
+      </c>
+      <c r="D166" t="s">
+        <v>62</v>
+      </c>
+      <c r="E166" t="s">
+        <v>47</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2.995</v>
+      </c>
+      <c r="G166" t="s">
+        <v>14</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1.323</v>
+      </c>
+      <c r="I166" t="n">
+        <v>8.975</v>
+      </c>
+      <c r="J166" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>45144.2222222222</v>
+      </c>
+      <c r="B167" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167" t="s">
+        <v>54</v>
+      </c>
+      <c r="D167" t="s">
+        <v>62</v>
+      </c>
+      <c r="E167" t="s">
+        <v>47</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2.995</v>
+      </c>
+      <c r="G167" t="s">
+        <v>14</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1.285</v>
+      </c>
+      <c r="I167" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="J167" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>45144.2222222222</v>
+      </c>
+      <c r="B168" t="s">
+        <v>10</v>
+      </c>
+      <c r="C168" t="s">
+        <v>54</v>
+      </c>
+      <c r="D168" t="s">
+        <v>62</v>
+      </c>
+      <c r="E168" t="s">
+        <v>47</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2.767</v>
+      </c>
+      <c r="G168" t="s">
+        <v>14</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1.3515</v>
+      </c>
+      <c r="I168" t="n">
+        <v>10.132</v>
+      </c>
+      <c r="J168" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>45144.2222222222</v>
+      </c>
+      <c r="B169" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169" t="s">
+        <v>54</v>
+      </c>
+      <c r="D169" t="s">
+        <v>62</v>
+      </c>
+      <c r="E169" t="s">
+        <v>47</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2.767</v>
+      </c>
+      <c r="G169" t="s">
+        <v>14</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1.323</v>
+      </c>
+      <c r="I169" t="n">
+        <v>11.726</v>
+      </c>
+      <c r="J169" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>45144.2222222222</v>
+      </c>
+      <c r="B170" t="s">
+        <v>10</v>
+      </c>
+      <c r="C170" t="s">
+        <v>54</v>
+      </c>
+      <c r="D170" t="s">
+        <v>62</v>
+      </c>
+      <c r="E170" t="s">
+        <v>47</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2.767</v>
+      </c>
+      <c r="G170" t="s">
+        <v>14</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1.285</v>
+      </c>
+      <c r="I170" t="n">
+        <v>13.961</v>
+      </c>
+      <c r="J170" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>45144.2222222222</v>
+      </c>
+      <c r="B171" t="s">
+        <v>10</v>
+      </c>
+      <c r="C171" t="s">
+        <v>54</v>
+      </c>
+      <c r="D171" t="s">
+        <v>62</v>
+      </c>
+      <c r="E171" t="s">
+        <v>47</v>
+      </c>
+      <c r="F171" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G171" t="s">
+        <v>14</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I171" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="J171" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
